--- a/advanced_data_analysis/analysis_add-ins.xlsx
+++ b/advanced_data_analysis/analysis_add-ins.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walka\MyGit\excel\advanced_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walka\MyGit\excel\advanced_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B05BF64-18AA-497B-9B76-AFD105D91D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C25001D-CA3C-4C76-ADD0-ED7D26A5C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{BF3C499C-4EE3-4442-B128-B0E678080ACC}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>Input Cells</t>
-  </si>
-  <si>
-    <t>Job</t>
   </si>
   <si>
     <t>Base Salary</t>
@@ -124,9 +121,6 @@
     <t>Max Likely</t>
   </si>
   <si>
-    <t>Result Cells</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -135,18 +129,22 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t xml:space="preserve">Job </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,13 +155,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,48 +175,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -391,21 +355,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -421,34 +370,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -457,190 +378,65 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -13413,15 +13209,15 @@
         <v>45292</v>
       </c>
       <c r="C367">
-        <f>_xlfn.FORECAST.ETS(A367,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" ref="C367:C398" si="0">_xlfn.FORECAST.ETS(A367,$B$2:$B$366,$A$2:$A$366,1,1)</f>
         <v>44.490739333500457</v>
       </c>
       <c r="D367" s="10">
-        <f>C367-_xlfn.FORECAST.ETS.CONFINT(A367,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" ref="D367:D398" si="1">C367-_xlfn.FORECAST.ETS.CONFINT(A367,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
         <v>-2.1006233086081778</v>
       </c>
       <c r="E367" s="10">
-        <f>C367+_xlfn.FORECAST.ETS.CONFINT(A367,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" ref="E367:E398" si="2">C367+_xlfn.FORECAST.ETS.CONFINT(A367,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
         <v>91.082101975609092</v>
       </c>
     </row>
@@ -13430,15 +13226,15 @@
         <v>45293</v>
       </c>
       <c r="C368">
-        <f>_xlfn.FORECAST.ETS(A368,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>60.561481890528384</v>
       </c>
       <c r="D368" s="10">
-        <f>C368-_xlfn.FORECAST.ETS.CONFINT(A368,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>12.513519363542436</v>
       </c>
       <c r="E368" s="10">
-        <f>C368+_xlfn.FORECAST.ETS.CONFINT(A368,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>108.60944441751434</v>
       </c>
     </row>
@@ -13447,15 +13243,15 @@
         <v>45294</v>
       </c>
       <c r="C369">
-        <f>_xlfn.FORECAST.ETS(A369,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>79.425063879258175</v>
       </c>
       <c r="D369" s="10">
-        <f>C369-_xlfn.FORECAST.ETS.CONFINT(A369,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>29.952297992837352</v>
       </c>
       <c r="E369" s="10">
-        <f>C369+_xlfn.FORECAST.ETS.CONFINT(A369,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>128.89782976567901</v>
       </c>
     </row>
@@ -13464,15 +13260,15 @@
         <v>45295</v>
       </c>
       <c r="C370">
-        <f>_xlfn.FORECAST.ETS(A370,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>63.135902609367555</v>
       </c>
       <c r="D370" s="10">
-        <f>C370-_xlfn.FORECAST.ETS.CONFINT(A370,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>12.267415323696312</v>
       </c>
       <c r="E370" s="10">
-        <f>C370+_xlfn.FORECAST.ETS.CONFINT(A370,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>114.0043898950388</v>
       </c>
     </row>
@@ -13481,15 +13277,15 @@
         <v>45296</v>
       </c>
       <c r="C371">
-        <f>_xlfn.FORECAST.ETS(A371,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>68.609720435612303</v>
       </c>
       <c r="D371" s="10">
-        <f>C371-_xlfn.FORECAST.ETS.CONFINT(A371,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>16.372220999436486</v>
       </c>
       <c r="E371" s="10">
-        <f>C371+_xlfn.FORECAST.ETS.CONFINT(A371,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>120.84721987178813</v>
       </c>
     </row>
@@ -13498,15 +13294,15 @@
         <v>45297</v>
       </c>
       <c r="C372">
-        <f>_xlfn.FORECAST.ETS(A372,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>34.607091016174465</v>
       </c>
       <c r="D372" s="10">
-        <f>C372-_xlfn.FORECAST.ETS.CONFINT(A372,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-18.974799131511318</v>
       </c>
       <c r="E372" s="10">
-        <f>C372+_xlfn.FORECAST.ETS.CONFINT(A372,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>88.188981163860248</v>
       </c>
     </row>
@@ -13515,15 +13311,15 @@
         <v>45298</v>
       </c>
       <c r="C373">
-        <f>_xlfn.FORECAST.ETS(A373,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>29.526809189014482</v>
       </c>
       <c r="D373" s="10">
-        <f>C373-_xlfn.FORECAST.ETS.CONFINT(A373,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-25.376698473112494</v>
       </c>
       <c r="E373" s="10">
-        <f>C373+_xlfn.FORECAST.ETS.CONFINT(A373,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>84.430316851141455</v>
       </c>
     </row>
@@ -13532,15 +13328,15 @@
         <v>45299</v>
       </c>
       <c r="C374">
-        <f>_xlfn.FORECAST.ETS(A374,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>44.017548522514943</v>
       </c>
       <c r="D374" s="10">
-        <f>C374-_xlfn.FORECAST.ETS.CONFINT(A374,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-15.770317225685204</v>
       </c>
       <c r="E374" s="10">
-        <f>C374+_xlfn.FORECAST.ETS.CONFINT(A374,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>103.80541427071509</v>
       </c>
     </row>
@@ -13549,15 +13345,15 @@
         <v>45300</v>
       </c>
       <c r="C375">
-        <f>_xlfn.FORECAST.ETS(A375,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>60.088291079542856</v>
       </c>
       <c r="D375" s="10">
-        <f>C375-_xlfn.FORECAST.ETS.CONFINT(A375,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-0.90519473465334954</v>
       </c>
       <c r="E375" s="10">
-        <f>C375+_xlfn.FORECAST.ETS.CONFINT(A375,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>121.08177689373906</v>
       </c>
     </row>
@@ -13566,15 +13362,15 @@
         <v>45301</v>
       </c>
       <c r="C376">
-        <f>_xlfn.FORECAST.ETS(A376,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>78.951873068272647</v>
       </c>
       <c r="D376" s="10">
-        <f>C376-_xlfn.FORECAST.ETS.CONFINT(A376,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>16.76708107946633</v>
       </c>
       <c r="E376" s="10">
-        <f>C376+_xlfn.FORECAST.ETS.CONFINT(A376,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>141.13666505707897</v>
       </c>
     </row>
@@ -13583,15 +13379,15 @@
         <v>45302</v>
       </c>
       <c r="C377">
-        <f>_xlfn.FORECAST.ETS(A377,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>62.662711798382027</v>
       </c>
       <c r="D377" s="10">
-        <f>C377-_xlfn.FORECAST.ETS.CONFINT(A377,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-0.69991410213302174</v>
       </c>
       <c r="E377" s="10">
-        <f>C377+_xlfn.FORECAST.ETS.CONFINT(A377,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>126.02533769889708</v>
       </c>
     </row>
@@ -13600,15 +13396,15 @@
         <v>45303</v>
       </c>
       <c r="C378">
-        <f>_xlfn.FORECAST.ETS(A378,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>68.136529624626775</v>
       </c>
       <c r="D378" s="10">
-        <f>C378-_xlfn.FORECAST.ETS.CONFINT(A378,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>3.6087706969433242</v>
       </c>
       <c r="E378" s="10">
-        <f>C378+_xlfn.FORECAST.ETS.CONFINT(A378,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>132.66428855231021</v>
       </c>
     </row>
@@ -13617,15 +13413,15 @@
         <v>45304</v>
       </c>
       <c r="C379">
-        <f>_xlfn.FORECAST.ETS(A379,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>34.133900205188944</v>
       </c>
       <c r="D379" s="10">
-        <f>C379-_xlfn.FORECAST.ETS.CONFINT(A379,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-31.546999833278015</v>
       </c>
       <c r="E379" s="10">
-        <f>C379+_xlfn.FORECAST.ETS.CONFINT(A379,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>99.814800243655895</v>
       </c>
     </row>
@@ -13634,15 +13430,15 @@
         <v>45305</v>
       </c>
       <c r="C380">
-        <f>_xlfn.FORECAST.ETS(A380,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>29.053618378028954</v>
       </c>
       <c r="D380" s="10">
-        <f>C380-_xlfn.FORECAST.ETS.CONFINT(A380,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-37.769084166991888</v>
       </c>
       <c r="E380" s="10">
-        <f>C380+_xlfn.FORECAST.ETS.CONFINT(A380,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>95.876320923049803</v>
       </c>
     </row>
@@ -13651,15 +13447,15 @@
         <v>45306</v>
       </c>
       <c r="C381">
-        <f>_xlfn.FORECAST.ETS(A381,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>43.544357711529415</v>
       </c>
       <c r="D381" s="10">
-        <f>C381-_xlfn.FORECAST.ETS.CONFINT(A381,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-27.455727426564422</v>
       </c>
       <c r="E381" s="10">
-        <f>C381+_xlfn.FORECAST.ETS.CONFINT(A381,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>114.54444284962325</v>
       </c>
     </row>
@@ -13668,15 +13464,15 @@
         <v>45307</v>
       </c>
       <c r="C382">
-        <f>_xlfn.FORECAST.ETS(A382,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>59.615100268557327</v>
       </c>
       <c r="D382" s="10">
-        <f>C382-_xlfn.FORECAST.ETS.CONFINT(A382,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-12.458515122590086</v>
       </c>
       <c r="E382" s="10">
-        <f>C382+_xlfn.FORECAST.ETS.CONFINT(A382,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>131.68871565970474</v>
       </c>
     </row>
@@ -13685,15 +13481,15 @@
         <v>45308</v>
       </c>
       <c r="C383">
-        <f>_xlfn.FORECAST.ETS(A383,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>78.478682257287119</v>
       </c>
       <c r="D383" s="10">
-        <f>C383-_xlfn.FORECAST.ETS.CONFINT(A383,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>5.339383696668321</v>
       </c>
       <c r="E383" s="10">
-        <f>C383+_xlfn.FORECAST.ETS.CONFINT(A383,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>151.6179808179059</v>
       </c>
     </row>
@@ -13702,15 +13498,15 @@
         <v>45309</v>
       </c>
       <c r="C384">
-        <f>_xlfn.FORECAST.ETS(A384,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>62.189520987396506</v>
       </c>
       <c r="D384" s="10">
-        <f>C384-_xlfn.FORECAST.ETS.CONFINT(A384,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-12.007981034515282</v>
       </c>
       <c r="E384" s="10">
-        <f>C384+_xlfn.FORECAST.ETS.CONFINT(A384,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>136.38702300930828</v>
       </c>
     </row>
@@ -13719,15 +13515,15 @@
         <v>45310</v>
       </c>
       <c r="C385">
-        <f>_xlfn.FORECAST.ETS(A385,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>67.663338813641246</v>
       </c>
       <c r="D385" s="10">
-        <f>C385-_xlfn.FORECAST.ETS.CONFINT(A385,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-7.585231366249829</v>
       </c>
       <c r="E385" s="10">
-        <f>C385+_xlfn.FORECAST.ETS.CONFINT(A385,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>142.91190899353234</v>
       </c>
     </row>
@@ -13736,15 +13532,15 @@
         <v>45311</v>
       </c>
       <c r="C386">
-        <f>_xlfn.FORECAST.ETS(A386,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>33.660709394203423</v>
       </c>
       <c r="D386" s="10">
-        <f>C386-_xlfn.FORECAST.ETS.CONFINT(A386,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-42.632116998116373</v>
       </c>
       <c r="E386" s="10">
-        <f>C386+_xlfn.FORECAST.ETS.CONFINT(A386,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>109.95353578652322</v>
       </c>
     </row>
@@ -13753,15 +13549,15 @@
         <v>45312</v>
       </c>
       <c r="C387">
-        <f>_xlfn.FORECAST.ETS(A387,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>28.580427567043433</v>
       </c>
       <c r="D387" s="10">
-        <f>C387-_xlfn.FORECAST.ETS.CONFINT(A387,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-48.750147125206936</v>
       </c>
       <c r="E387" s="10">
-        <f>C387+_xlfn.FORECAST.ETS.CONFINT(A387,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>105.9110022592938</v>
       </c>
     </row>
@@ -13770,15 +13566,15 @@
         <v>45313</v>
       </c>
       <c r="C388">
-        <f>_xlfn.FORECAST.ETS(A388,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>43.071166900543886</v>
       </c>
       <c r="D388" s="10">
-        <f>C388-_xlfn.FORECAST.ETS.CONFINT(A388,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-37.993707166488107</v>
       </c>
       <c r="E388" s="10">
-        <f>C388+_xlfn.FORECAST.ETS.CONFINT(A388,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>124.13604096757588</v>
       </c>
     </row>
@@ -13787,15 +13583,15 @@
         <v>45314</v>
       </c>
       <c r="C389">
-        <f>_xlfn.FORECAST.ETS(A389,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>59.141909457571813</v>
       </c>
       <c r="D389" s="10">
-        <f>C389-_xlfn.FORECAST.ETS.CONFINT(A389,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-22.914766153423287</v>
       </c>
       <c r="E389" s="10">
-        <f>C389+_xlfn.FORECAST.ETS.CONFINT(A389,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>141.1985850685669</v>
       </c>
     </row>
@@ -13804,15 +13600,15 @@
         <v>45315</v>
       </c>
       <c r="C390">
-        <f>_xlfn.FORECAST.ETS(A390,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>78.005491446301605</v>
       </c>
       <c r="D390" s="10">
-        <f>C390-_xlfn.FORECAST.ETS.CONFINT(A390,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-5.0382898993070029</v>
       </c>
       <c r="E390" s="10">
-        <f>C390+_xlfn.FORECAST.ETS.CONFINT(A390,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>161.0492727919102</v>
       </c>
     </row>
@@ -13821,15 +13617,15 @@
         <v>45316</v>
       </c>
       <c r="C391">
-        <f>_xlfn.FORECAST.ETS(A391,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>61.716330176410985</v>
       </c>
       <c r="D391" s="10">
-        <f>C391-_xlfn.FORECAST.ETS.CONFINT(A391,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-22.310052421921888</v>
       </c>
       <c r="E391" s="10">
-        <f>C391+_xlfn.FORECAST.ETS.CONFINT(A391,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>145.74271277474386</v>
       </c>
     </row>
@@ -13838,15 +13634,15 @@
         <v>45317</v>
       </c>
       <c r="C392">
-        <f>_xlfn.FORECAST.ETS(A392,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>67.190148002655718</v>
       </c>
       <c r="D392" s="10">
-        <f>C392-_xlfn.FORECAST.ETS.CONFINT(A392,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-17.814513110666326</v>
       </c>
       <c r="E392" s="10">
-        <f>C392+_xlfn.FORECAST.ETS.CONFINT(A392,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>152.19480911597776</v>
       </c>
     </row>
@@ -13855,15 +13651,15 @@
         <v>45318</v>
       </c>
       <c r="C393">
-        <f>_xlfn.FORECAST.ETS(A393,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>33.187518583217894</v>
       </c>
       <c r="D393" s="10">
-        <f>C393-_xlfn.FORECAST.ETS.CONFINT(A393,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-52.791271109213312</v>
       </c>
       <c r="E393" s="10">
-        <f>C393+_xlfn.FORECAST.ETS.CONFINT(A393,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>119.1663082756491</v>
       </c>
     </row>
@@ -13872,15 +13668,15 @@
         <v>45319</v>
       </c>
       <c r="C394">
-        <f>_xlfn.FORECAST.ETS(A394,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>28.107236756057912</v>
       </c>
       <c r="D394" s="10">
-        <f>C394-_xlfn.FORECAST.ETS.CONFINT(A394,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-58.841696026497473</v>
       </c>
       <c r="E394" s="10">
-        <f>C394+_xlfn.FORECAST.ETS.CONFINT(A394,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>115.0561695386133</v>
       </c>
     </row>
@@ -13889,15 +13685,15 @@
         <v>45320</v>
       </c>
       <c r="C395">
-        <f>_xlfn.FORECAST.ETS(A395,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>42.597976089558372</v>
       </c>
       <c r="D395" s="10">
-        <f>C395-_xlfn.FORECAST.ETS.CONFINT(A395,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-47.776706108313434</v>
       </c>
       <c r="E395" s="10">
-        <f>C395+_xlfn.FORECAST.ETS.CONFINT(A395,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>132.97265828743019</v>
       </c>
     </row>
@@ -13906,15 +13702,15 @@
         <v>45321</v>
       </c>
       <c r="C396">
-        <f>_xlfn.FORECAST.ETS(A396,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>58.668718646586285</v>
       </c>
       <c r="D396" s="10">
-        <f>C396-_xlfn.FORECAST.ETS.CONFINT(A396,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-32.642673742740726</v>
       </c>
       <c r="E396" s="10">
-        <f>C396+_xlfn.FORECAST.ETS.CONFINT(A396,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>149.9801110359133</v>
       </c>
     </row>
@@ -13923,15 +13719,15 @@
         <v>45322</v>
       </c>
       <c r="C397">
-        <f>_xlfn.FORECAST.ETS(A397,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>77.532300635316076</v>
       </c>
       <c r="D397" s="10">
-        <f>C397-_xlfn.FORECAST.ETS.CONFINT(A397,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-14.71289095419084</v>
       </c>
       <c r="E397" s="10">
-        <f>C397+_xlfn.FORECAST.ETS.CONFINT(A397,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>169.77749222482299</v>
       </c>
     </row>
@@ -13940,15 +13736,15 @@
         <v>45323</v>
       </c>
       <c r="C398">
-        <f>_xlfn.FORECAST.ETS(A398,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="0"/>
         <v>61.243139365425456</v>
       </c>
       <c r="D398" s="10">
-        <f>C398-_xlfn.FORECAST.ETS.CONFINT(A398,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="1"/>
         <v>-31.933051251051445</v>
       </c>
       <c r="E398" s="10">
-        <f>C398+_xlfn.FORECAST.ETS.CONFINT(A398,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="2"/>
         <v>154.41932998190237</v>
       </c>
     </row>
@@ -13957,15 +13753,15 @@
         <v>45324</v>
       </c>
       <c r="C399">
-        <f>_xlfn.FORECAST.ETS(A399,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" ref="C399:C427" si="3">_xlfn.FORECAST.ETS(A399,$B$2:$B$366,$A$2:$A$366,1,1)</f>
         <v>66.716957191670204</v>
       </c>
       <c r="D399" s="10">
-        <f>C399-_xlfn.FORECAST.ETS.CONFINT(A399,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" ref="D399:D430" si="4">C399-_xlfn.FORECAST.ETS.CONFINT(A399,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
         <v>-27.387538454538941</v>
       </c>
       <c r="E399" s="10">
-        <f>C399+_xlfn.FORECAST.ETS.CONFINT(A399,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" ref="E399:E427" si="5">C399+_xlfn.FORECAST.ETS.CONFINT(A399,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
         <v>160.82145283787935</v>
       </c>
     </row>
@@ -13974,15 +13770,15 @@
         <v>45325</v>
       </c>
       <c r="C400">
-        <f>_xlfn.FORECAST.ETS(A400,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>32.714327772232373</v>
       </c>
       <c r="D400" s="10">
-        <f>C400-_xlfn.FORECAST.ETS.CONFINT(A400,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-62.315880698459019</v>
       </c>
       <c r="E400" s="10">
-        <f>C400+_xlfn.FORECAST.ETS.CONFINT(A400,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>127.74453624292377</v>
       </c>
     </row>
@@ -13991,15 +13787,15 @@
         <v>45326</v>
       </c>
       <c r="C401">
-        <f>_xlfn.FORECAST.ETS(A401,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>27.634045945072383</v>
       </c>
       <c r="D401" s="10">
-        <f>C401-_xlfn.FORECAST.ETS.CONFINT(A401,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-68.319380792982059</v>
       </c>
       <c r="E401" s="10">
-        <f>C401+_xlfn.FORECAST.ETS.CONFINT(A401,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>123.58747268312683</v>
       </c>
     </row>
@@ -14008,15 +13804,15 @@
         <v>45327</v>
       </c>
       <c r="C402">
-        <f>_xlfn.FORECAST.ETS(A402,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>42.124785278572844</v>
       </c>
       <c r="D402" s="10">
-        <f>C402-_xlfn.FORECAST.ETS.CONFINT(A402,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-57.025148418753744</v>
       </c>
       <c r="E402" s="10">
-        <f>C402+_xlfn.FORECAST.ETS.CONFINT(A402,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>141.27471897589942</v>
       </c>
     </row>
@@ -14025,15 +13821,15 @@
         <v>45328</v>
       </c>
       <c r="C403">
-        <f>_xlfn.FORECAST.ETS(A403,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>58.195527835600757</v>
       </c>
       <c r="D403" s="10">
-        <f>C403-_xlfn.FORECAST.ETS.CONFINT(A403,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-41.852022243247845</v>
       </c>
       <c r="E403" s="10">
-        <f>C403+_xlfn.FORECAST.ETS.CONFINT(A403,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>158.24307791444937</v>
       </c>
     </row>
@@ -14042,15 +13838,15 @@
         <v>45329</v>
       </c>
       <c r="C404">
-        <f>_xlfn.FORECAST.ETS(A404,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>77.059109824330548</v>
       </c>
       <c r="D404" s="10">
-        <f>C404-_xlfn.FORECAST.ETS.CONFINT(A404,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-23.884257394828822</v>
       </c>
       <c r="E404" s="10">
-        <f>C404+_xlfn.FORECAST.ETS.CONFINT(A404,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>178.00247704348993</v>
       </c>
     </row>
@@ -14059,15 +13855,15 @@
         <v>45330</v>
       </c>
       <c r="C405">
-        <f>_xlfn.FORECAST.ETS(A405,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>60.769948554439935</v>
       </c>
       <c r="D405" s="10">
-        <f>C405-_xlfn.FORECAST.ETS.CONFINT(A405,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-41.067505361010234</v>
       </c>
       <c r="E405" s="10">
-        <f>C405+_xlfn.FORECAST.ETS.CONFINT(A405,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>162.6074024698901</v>
       </c>
     </row>
@@ -14076,15 +13872,15 @@
         <v>45331</v>
       </c>
       <c r="C406">
-        <f>_xlfn.FORECAST.ETS(A406,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>66.243766380684676</v>
       </c>
       <c r="D406" s="10">
-        <f>C406-_xlfn.FORECAST.ETS.CONFINT(A406,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-36.486110099373434</v>
       </c>
       <c r="E406" s="10">
-        <f>C406+_xlfn.FORECAST.ETS.CONFINT(A406,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>168.97364286074279</v>
       </c>
     </row>
@@ -14093,15 +13889,15 @@
         <v>45332</v>
       </c>
       <c r="C407">
-        <f>_xlfn.FORECAST.ETS(A407,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>32.241136961246852</v>
       </c>
       <c r="D407" s="10">
-        <f>C407-_xlfn.FORECAST.ETS.CONFINT(A407,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-71.379561897291424</v>
       </c>
       <c r="E407" s="10">
-        <f>C407+_xlfn.FORECAST.ETS.CONFINT(A407,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>135.86183581978514</v>
       </c>
     </row>
@@ -14110,15 +13906,15 @@
         <v>45333</v>
       </c>
       <c r="C408">
-        <f>_xlfn.FORECAST.ETS(A408,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>27.160855134086862</v>
       </c>
       <c r="D408" s="10">
-        <f>C408-_xlfn.FORECAST.ETS.CONFINT(A408,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-77.349127606621821</v>
       </c>
       <c r="E408" s="10">
-        <f>C408+_xlfn.FORECAST.ETS.CONFINT(A408,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>131.67083787479555</v>
       </c>
     </row>
@@ -14127,15 +13923,15 @@
         <v>45334</v>
       </c>
       <c r="C409">
-        <f>_xlfn.FORECAST.ETS(A409,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>41.651594467587316</v>
       </c>
       <c r="D409" s="10">
-        <f>C409-_xlfn.FORECAST.ETS.CONFINT(A409,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-65.876920145688757</v>
       </c>
       <c r="E409" s="10">
-        <f>C409+_xlfn.FORECAST.ETS.CONFINT(A409,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>149.18010908086339</v>
       </c>
     </row>
@@ -14144,15 +13940,15 @@
         <v>45335</v>
       </c>
       <c r="C410">
-        <f>_xlfn.FORECAST.ETS(A410,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>57.722337024615243</v>
       </c>
       <c r="D410" s="10">
-        <f>C410-_xlfn.FORECAST.ETS.CONFINT(A410,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-50.675139147176949</v>
       </c>
       <c r="E410" s="10">
-        <f>C410+_xlfn.FORECAST.ETS.CONFINT(A410,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>166.11981319640745</v>
       </c>
     </row>
@@ -14161,15 +13957,15 @@
         <v>45336</v>
       </c>
       <c r="C411">
-        <f>_xlfn.FORECAST.ETS(A411,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>76.585919013345034</v>
       </c>
       <c r="D411" s="10">
-        <f>C411-_xlfn.FORECAST.ETS.CONFINT(A411,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-32.679458854618687</v>
       </c>
       <c r="E411" s="10">
-        <f>C411+_xlfn.FORECAST.ETS.CONFINT(A411,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>185.85129688130877</v>
       </c>
     </row>
@@ -14178,15 +13974,15 @@
         <v>45337</v>
       </c>
       <c r="C412">
-        <f>_xlfn.FORECAST.ETS(A412,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>60.296757743454414</v>
       </c>
       <c r="D412" s="10">
-        <f>C412-_xlfn.FORECAST.ETS.CONFINT(A412,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-49.835506725644684</v>
       </c>
       <c r="E412" s="10">
-        <f>C412+_xlfn.FORECAST.ETS.CONFINT(A412,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>170.42902221255352</v>
       </c>
     </row>
@@ -14195,15 +13991,15 @@
         <v>45338</v>
       </c>
       <c r="C413">
-        <f>_xlfn.FORECAST.ETS(A413,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>65.770575569699162</v>
       </c>
       <c r="D413" s="10">
-        <f>C413-_xlfn.FORECAST.ETS.CONFINT(A413,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-45.227603745605293</v>
       </c>
       <c r="E413" s="10">
-        <f>C413+_xlfn.FORECAST.ETS.CONFINT(A413,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>176.7687548850036</v>
       </c>
     </row>
@@ -14212,15 +14008,15 @@
         <v>45339</v>
       </c>
       <c r="C414">
-        <f>_xlfn.FORECAST.ETS(A414,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>31.767946150261324</v>
       </c>
       <c r="D414" s="10">
-        <f>C414-_xlfn.FORECAST.ETS.CONFINT(A414,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-80.095218228374577</v>
       </c>
       <c r="E414" s="10">
-        <f>C414+_xlfn.FORECAST.ETS.CONFINT(A414,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>143.63111052889724</v>
       </c>
     </row>
@@ -14229,15 +14025,15 @@
         <v>45340</v>
       </c>
       <c r="C415">
-        <f>_xlfn.FORECAST.ETS(A415,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>26.687664323101341</v>
       </c>
       <c r="D415" s="10">
-        <f>C415-_xlfn.FORECAST.ETS.CONFINT(A415,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-86.039595996084287</v>
       </c>
       <c r="E415" s="10">
-        <f>C415+_xlfn.FORECAST.ETS.CONFINT(A415,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>139.41492464228696</v>
       </c>
     </row>
@@ -14246,15 +14042,15 @@
         <v>45341</v>
       </c>
       <c r="C416">
-        <f>_xlfn.FORECAST.ETS(A416,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>41.178403656601802</v>
       </c>
       <c r="D416" s="10">
-        <f>C416-_xlfn.FORECAST.ETS.CONFINT(A416,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-74.424747808252761</v>
       </c>
       <c r="E416" s="10">
-        <f>C416+_xlfn.FORECAST.ETS.CONFINT(A416,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>156.78155512145636</v>
       </c>
     </row>
@@ -14263,15 +14059,15 @@
         <v>45342</v>
       </c>
       <c r="C417">
-        <f>_xlfn.FORECAST.ETS(A417,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>57.249146213629714</v>
       </c>
       <c r="D417" s="10">
-        <f>C417-_xlfn.FORECAST.ETS.CONFINT(A417,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-59.20153523118303</v>
       </c>
       <c r="E417" s="10">
-        <f>C417+_xlfn.FORECAST.ETS.CONFINT(A417,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>173.69982765844247</v>
       </c>
     </row>
@@ -14280,15 +14076,15 @@
         <v>45343</v>
       </c>
       <c r="C418">
-        <f>_xlfn.FORECAST.ETS(A418,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>76.112728202359506</v>
       </c>
       <c r="D418" s="10">
-        <f>C418-_xlfn.FORECAST.ETS.CONFINT(A418,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-41.184939100214436</v>
       </c>
       <c r="E418" s="10">
-        <f>C418+_xlfn.FORECAST.ETS.CONFINT(A418,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>193.41039550493343</v>
       </c>
     </row>
@@ -14297,15 +14093,15 @@
         <v>45344</v>
       </c>
       <c r="C419">
-        <f>_xlfn.FORECAST.ETS(A419,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>59.823566932468886</v>
       </c>
       <c r="D419" s="10">
-        <f>C419-_xlfn.FORECAST.ETS.CONFINT(A419,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-58.320572182040173</v>
       </c>
       <c r="E419" s="10">
-        <f>C419+_xlfn.FORECAST.ETS.CONFINT(A419,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>177.96770604697795</v>
       </c>
     </row>
@@ -14314,15 +14110,15 @@
         <v>45345</v>
       </c>
       <c r="C420">
-        <f>_xlfn.FORECAST.ETS(A420,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>65.297384758713633</v>
       </c>
       <c r="D420" s="10">
-        <f>C420-_xlfn.FORECAST.ETS.CONFINT(A420,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-53.692741335516715</v>
       </c>
       <c r="E420" s="10">
-        <f>C420+_xlfn.FORECAST.ETS.CONFINT(A420,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>184.28751085294397</v>
       </c>
     </row>
@@ -14331,15 +14127,15 @@
         <v>45346</v>
       </c>
       <c r="C421">
-        <f>_xlfn.FORECAST.ETS(A421,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>31.294755339275802</v>
       </c>
       <c r="D421" s="10">
-        <f>C421-_xlfn.FORECAST.ETS.CONFINT(A421,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-88.540901285005134</v>
       </c>
       <c r="E421" s="10">
-        <f>C421+_xlfn.FORECAST.ETS.CONFINT(A421,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>151.13041196355675</v>
       </c>
     </row>
@@ -14348,15 +14144,15 @@
         <v>45347</v>
       </c>
       <c r="C422">
-        <f>_xlfn.FORECAST.ETS(A422,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>26.214473512115813</v>
       </c>
       <c r="D422" s="10">
-        <f>C422-_xlfn.FORECAST.ETS.CONFINT(A422,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-94.466284774256451</v>
       </c>
       <c r="E422" s="10">
-        <f>C422+_xlfn.FORECAST.ETS.CONFINT(A422,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>146.89523179848808</v>
       </c>
     </row>
@@ -14365,15 +14161,15 @@
         <v>45348</v>
       </c>
       <c r="C423">
-        <f>_xlfn.FORECAST.ETS(A423,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>40.705212845616273</v>
       </c>
       <c r="D423" s="10">
-        <f>C423-_xlfn.FORECAST.ETS.CONFINT(A423,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-82.734327056191418</v>
       </c>
       <c r="E423" s="10">
-        <f>C423+_xlfn.FORECAST.ETS.CONFINT(A423,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>164.14475274742398</v>
       </c>
     </row>
@@ -14382,15 +14178,15 @@
         <v>45349</v>
       </c>
       <c r="C424">
-        <f>_xlfn.FORECAST.ETS(A424,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>56.775955402644186</v>
       </c>
       <c r="D424" s="10">
-        <f>C424-_xlfn.FORECAST.ETS.CONFINT(A424,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-67.494904095472549</v>
       </c>
       <c r="E424" s="10">
-        <f>C424+_xlfn.FORECAST.ETS.CONFINT(A424,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>181.04681490076092</v>
       </c>
     </row>
@@ -14399,15 +14195,15 @@
         <v>45350</v>
       </c>
       <c r="C425">
-        <f>_xlfn.FORECAST.ETS(A425,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>75.639537391373977</v>
       </c>
       <c r="D425" s="10">
-        <f>C425-_xlfn.FORECAST.ETS.CONFINT(A425,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-49.462470528208655</v>
       </c>
       <c r="E425" s="10">
-        <f>C425+_xlfn.FORECAST.ETS.CONFINT(A425,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>200.74154531095661</v>
       </c>
     </row>
@@ -14416,15 +14212,15 @@
         <v>45351</v>
       </c>
       <c r="C426">
-        <f>_xlfn.FORECAST.ETS(A426,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>59.350376121483364</v>
       </c>
       <c r="D426" s="10">
-        <f>C426-_xlfn.FORECAST.ETS.CONFINT(A426,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-66.582629671327183</v>
       </c>
       <c r="E426" s="10">
-        <f>C426+_xlfn.FORECAST.ETS.CONFINT(A426,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>185.2833819142939</v>
       </c>
     </row>
@@ -14433,15 +14229,15 @@
         <v>45352</v>
       </c>
       <c r="C427">
-        <f>_xlfn.FORECAST.ETS(A427,$B$2:$B$366,$A$2:$A$366,1,1)</f>
+        <f t="shared" si="3"/>
         <v>64.824193947728105</v>
       </c>
       <c r="D427" s="10">
-        <f>C427-_xlfn.FORECAST.ETS.CONFINT(A427,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="4"/>
         <v>-61.939679255219701</v>
       </c>
       <c r="E427" s="10">
-        <f>C427+_xlfn.FORECAST.ETS.CONFINT(A427,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" si="5"/>
         <v>191.5880671506759</v>
       </c>
     </row>
@@ -14459,184 +14255,153 @@
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="15"/>
+      <c r="E2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="15" t="s">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13">
+        <v>100000</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="F3" s="22">
+        <v>100000</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="25">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17">
-        <v>100000</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="C4" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="19">
-        <v>100000</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="H3" s="21">
+      <c r="F4" s="22">
+        <v>80000</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="H4" s="25">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="28">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="19">
-        <v>80000</v>
-      </c>
-      <c r="G4" s="20">
-        <v>0.15</v>
-      </c>
-      <c r="H4" s="21">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="24">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="F5" s="22">
+        <v>120000</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="25">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="26">
-        <v>120000</v>
-      </c>
-      <c r="G5" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="H5" s="28">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="30" t="e">
+      <c r="F6" s="18" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="24">
         <v>0.25</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="26">
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="35">
-        <v>0</v>
-      </c>
-      <c r="C9" s="36">
-        <f>(base*(1+raise)^B9)*(1+bonus)</f>
-        <v>110000.00000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="35">
-        <v>1</v>
-      </c>
-      <c r="C10" s="36">
-        <f>(base*(1+raise)^B10)*(1+bonus)</f>
-        <v>111650</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="35">
-        <v>2</v>
-      </c>
-      <c r="C11" s="36">
-        <f>(base*(1+raise)^B11)*(1+bonus)</f>
-        <v>113324.74999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="35">
-        <v>3</v>
-      </c>
-      <c r="C12" s="36">
-        <f>(base*(1+raise)^B12)*(1+bonus)</f>
-        <v>115024.62124999997</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="37">
-        <v>4</v>
-      </c>
-      <c r="C13" s="38">
-        <f>(base*(1+raise)^B13)*(1+bonus)</f>
-        <v>116749.99056874996</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="40">
-        <f>SUM(C9:C13)</f>
-        <v>566749.36181874992</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/advanced_data_analysis/analysis_add-ins.xlsx
+++ b/advanced_data_analysis/analysis_add-ins.xlsx
@@ -8,58 +8,72 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walka\MyGit\excel\advanced_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C25001D-CA3C-4C76-ADD0-ED7D26A5C5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E252BC9-CA7E-483C-9EF5-E127C4E59B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{BF3C499C-4EE3-4442-B128-B0E678080ACC}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="13224" firstSheet="3" activeTab="7" xr2:uid="{BF3C499C-4EE3-4442-B128-B0E678080ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Forecast_Original" sheetId="2" r:id="rId1"/>
     <sheet name="Forecast_Final" sheetId="4" r:id="rId2"/>
-    <sheet name="What-If_Analysis" sheetId="5" r:id="rId3"/>
+    <sheet name="Scenario Summary" sheetId="7" r:id="rId3"/>
+    <sheet name="Answer Report 1" sheetId="8" r:id="rId4"/>
+    <sheet name="Sensitivity Report 1" sheetId="9" r:id="rId5"/>
+    <sheet name="Limits Report 1" sheetId="10" r:id="rId6"/>
+    <sheet name="Answer Report 2" sheetId="11" r:id="rId7"/>
+    <sheet name="What-If_Analysis" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="base" localSheetId="2">'What-If_Analysis'!$C$3</definedName>
-    <definedName name="bonus" localSheetId="2">'What-If_Analysis'!$C$4</definedName>
-    <definedName name="raise" localSheetId="2">'What-If_Analysis'!$C$5</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'What-If_Analysis'!$C$4</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'What-If_Analysis'!$C$5</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">0.25</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0.035</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="TotalSalary">'What-If_Analysis'!$C$14</definedName>
-    <definedName name="Year0">'What-If_Analysis'!$C$9</definedName>
-    <definedName name="Year1">'What-If_Analysis'!$C$10</definedName>
-    <definedName name="Year2">'What-If_Analysis'!$C$11</definedName>
-    <definedName name="Year3">'What-If_Analysis'!$C$12</definedName>
-    <definedName name="Year4">'What-If_Analysis'!$C$13</definedName>
+    <definedName name="base" localSheetId="7">'What-If_Analysis'!$C$3</definedName>
+    <definedName name="bonus" localSheetId="7">'What-If_Analysis'!$C$4</definedName>
+    <definedName name="raise" localSheetId="7">'What-If_Analysis'!$C$5</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'What-If_Analysis'!$C$4:$C$5</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'What-If_Analysis'!$C$4</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'What-If_Analysis'!$C$5</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'What-If_Analysis'!$C$14</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">0.2</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">0.05</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">640000</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="TotalSalary" localSheetId="7">'What-If_Analysis'!$C$14</definedName>
+    <definedName name="TotalSalary">#REF!</definedName>
+    <definedName name="Year0" localSheetId="7">'What-If_Analysis'!$C$9</definedName>
+    <definedName name="Year0">#REF!</definedName>
+    <definedName name="Year1" localSheetId="7">'What-If_Analysis'!$C$10</definedName>
+    <definedName name="Year1">#REF!</definedName>
+    <definedName name="Year2" localSheetId="7">'What-If_Analysis'!$C$11</definedName>
+    <definedName name="Year2">#REF!</definedName>
+    <definedName name="Year3" localSheetId="7">'What-If_Analysis'!$C$12</definedName>
+    <definedName name="Year3">#REF!</definedName>
+    <definedName name="Year4" localSheetId="7">'What-If_Analysis'!$C$13</definedName>
+    <definedName name="Year4">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="86">
   <si>
     <t>Date</t>
   </si>
@@ -130,7 +144,214 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Job </t>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Result Cells</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>raise</t>
+  </si>
+  <si>
+    <t>Year0</t>
+  </si>
+  <si>
+    <t>Year1</t>
+  </si>
+  <si>
+    <t>Year2</t>
+  </si>
+  <si>
+    <t>Year3</t>
+  </si>
+  <si>
+    <t>Year4</t>
+  </si>
+  <si>
+    <t>TotalSalary</t>
+  </si>
+  <si>
+    <t>Created by Raph Adam on 03 26 2025</t>
+  </si>
+  <si>
+    <t>Scenario Summary</t>
+  </si>
+  <si>
+    <t>Changing Cells:</t>
+  </si>
+  <si>
+    <t>Current Values:</t>
+  </si>
+  <si>
+    <t>Result Cells:</t>
+  </si>
+  <si>
+    <t>Notes:  Current Values column represents values of changing cells at</t>
+  </si>
+  <si>
+    <t>time Scenario Summary Report was created.  Changing cells for each</t>
+  </si>
+  <si>
+    <t>scenario are highlighted in gray.</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Answer Report</t>
+  </si>
+  <si>
+    <t>Worksheet: [analysis_add-ins.xlsx]What-If_Analysis</t>
+  </si>
+  <si>
+    <t>Report Created: Mar 26, 2025 2:37:21 PM</t>
+  </si>
+  <si>
+    <t>Result: Solver found a solution.  All Constraints and optimality conditions are satisfied.</t>
+  </si>
+  <si>
+    <t>Solver Engine</t>
+  </si>
+  <si>
+    <t>Engine: GRG Nonlinear</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.093 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 0 Subproblems: 0</t>
+  </si>
+  <si>
+    <t>Solver Options</t>
+  </si>
+  <si>
+    <t>Max Time Unlimited,  Iterations Unlimited, Precision 0.000001, Use Automatic Scaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Convergence 0.0001, Population Size 100, Random Seed 0, Derivatives Forward, Require Bounds</t>
+  </si>
+  <si>
+    <t>Max Subproblems Unlimited, Max Integer Sols Unlimited, Integer Tolerance 1%, Assume NonNegative</t>
+  </si>
+  <si>
+    <t>Objective Cell (Value Of)</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Original Value</t>
+  </si>
+  <si>
+    <t>Final Value</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Cell Value</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>$C$14</t>
+  </si>
+  <si>
+    <t>$C$4</t>
+  </si>
+  <si>
+    <t>Contin</t>
+  </si>
+  <si>
+    <t>$C$5</t>
+  </si>
+  <si>
+    <t>$C$14=640000</t>
+  </si>
+  <si>
+    <t>Binding</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Report Created: Mar 26, 2025 2:37:22 PM</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Gradient</t>
+  </si>
+  <si>
+    <t>Lagrange</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Limits Report</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Report Created: Mar 26, 2025 2:44:21 PM</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.062 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 2 Subproblems: 0</t>
+  </si>
+  <si>
+    <t>$C$4&lt;=0.2</t>
+  </si>
+  <si>
+    <t>Not Binding</t>
+  </si>
+  <si>
+    <t>$C$5&lt;=0.05</t>
   </si>
 </sst>
 </file>
@@ -138,13 +359,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,16 +396,91 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -370,6 +666,64 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -378,19 +732,187 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -411,32 +933,126 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -13757,7 +14373,7 @@
         <v>66.716957191670204</v>
       </c>
       <c r="D399" s="10">
-        <f t="shared" ref="D399:D430" si="4">C399-_xlfn.FORECAST.ETS.CONFINT(A399,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
+        <f t="shared" ref="D399:D427" si="4">C399-_xlfn.FORECAST.ETS.CONFINT(A399,$B$2:$B$366,$A$2:$A$366,0.95,1,1)</f>
         <v>-27.387538454538941</v>
       </c>
       <c r="E399" s="10">
@@ -14251,38 +14867,1068 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F2C323-B90C-465D-8DE6-80FFB8C5DA34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37317632-790B-451A-A5DB-9C8069A906AC}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:G18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.6640625" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.6" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="32.4" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+    </row>
+    <row r="6" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="43">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="55">
+        <v>100000</v>
+      </c>
+      <c r="F6" s="55">
+        <v>80000</v>
+      </c>
+      <c r="G6" s="55">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="44">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="56">
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="56">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="45">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E8" s="57">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F8" s="57">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G8" s="57">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+    </row>
+    <row r="10" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="43">
+        <v>110000</v>
+      </c>
+      <c r="E10" s="43">
+        <v>110000</v>
+      </c>
+      <c r="F10" s="43">
+        <v>110000</v>
+      </c>
+      <c r="G10" s="43">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="43">
+        <v>111650</v>
+      </c>
+      <c r="E11" s="43">
+        <v>111650</v>
+      </c>
+      <c r="F11" s="43">
+        <v>111650</v>
+      </c>
+      <c r="G11" s="43">
+        <v>111650</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="43">
+        <v>113324.75</v>
+      </c>
+      <c r="E12" s="43">
+        <v>113324.75</v>
+      </c>
+      <c r="F12" s="43">
+        <v>113324.75</v>
+      </c>
+      <c r="G12" s="43">
+        <v>113324.75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="43">
+        <v>115024.62125</v>
+      </c>
+      <c r="E13" s="43">
+        <v>115024.62125</v>
+      </c>
+      <c r="F13" s="43">
+        <v>115024.62125</v>
+      </c>
+      <c r="G13" s="43">
+        <v>115024.62125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="43">
+        <v>116749.99056875</v>
+      </c>
+      <c r="E14" s="43">
+        <v>116749.99056875</v>
+      </c>
+      <c r="F14" s="43">
+        <v>116749.99056875</v>
+      </c>
+      <c r="G14" s="43">
+        <v>116749.99056875</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="46">
+        <v>566749.36181875004</v>
+      </c>
+      <c r="E15" s="46">
+        <v>566749.36181875004</v>
+      </c>
+      <c r="F15" s="46">
+        <v>566749.36181875004</v>
+      </c>
+      <c r="G15" s="46">
+        <v>566749.36181875004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9789B918-84CC-4151-AE9D-7D2E8DEB9462}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="62">
+        <v>566749.36179999996</v>
+      </c>
+      <c r="E16" s="62">
+        <v>639999.95109999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="63">
+        <v>0.226693026881682</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E22" s="64">
+        <v>2.1270607913771021E-2</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="62">
+        <v>639999.94999999995</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="59">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EFCC5C-41B8-46D5-84D8-EA5738816026}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="61">
+        <v>0.226693026881682</v>
+      </c>
+      <c r="E9" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="59">
+        <v>2.1270607913771021E-2</v>
+      </c>
+      <c r="E10" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="67">
+        <v>639999.94999999995</v>
+      </c>
+      <c r="E15" s="59">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9500024-5967-493D-8ABD-61719E0CAC04}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="65"/>
+      <c r="C6" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="65"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="62">
+        <v>639999.95109999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="65"/>
+      <c r="C11" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="F11" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="63">
+        <v>0.226693026881682</v>
+      </c>
+      <c r="F13" s="63">
+        <v>0</v>
+      </c>
+      <c r="G13" s="63">
+        <v>521727.88</v>
+      </c>
+      <c r="I13" s="61" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J13" s="61" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="64">
+        <v>2.1270607913771021E-2</v>
+      </c>
+      <c r="F14" s="64">
+        <v>0</v>
+      </c>
+      <c r="G14" s="64">
+        <v>613346.51</v>
+      </c>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98E50DE-0C1C-4869-BA2F-BF9F71F89025}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" collapsed="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="62">
+        <v>622877.09439999994</v>
+      </c>
+      <c r="E16" s="62">
+        <v>640000.14520000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="63">
+        <v>0.15</v>
+      </c>
+      <c r="E21" s="63">
+        <v>0.17283479610661426</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="64">
+        <v>0.04</v>
+      </c>
+      <c r="E22" s="64">
+        <v>4.3731865887940702E-2</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="68">
+        <v>640000.15</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="63">
+        <v>0.17283479610661426</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="61">
+        <v>2.7165203893385753E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="64">
+        <v>4.3731865887940702E-2</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="59">
+        <v>6.2681341120593009E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324DEB92-0BCB-43D5-9832-7695D02DB378}">
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="E2" s="19" t="s">
+      <c r="C2" s="16"/>
+      <c r="E2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -14290,10 +15936,10 @@
       <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="20">
         <v>100000</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="22">
@@ -14302,7 +15948,7 @@
       <c r="G3" s="23">
         <v>0.1</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -14310,10 +15956,10 @@
       <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="25">
+        <v>0.17283479610661426</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="22">
@@ -14322,7 +15968,7 @@
       <c r="G4" s="23">
         <v>0.15</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -14330,78 +15976,126 @@
       <c r="B5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="28">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="C5" s="26">
+        <v>4.3731865887940702E-2</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="28">
         <v>120000</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="29">
         <v>0.05</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="30">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="17" t="s">
+    <row r="6" spans="2:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="18" t="e">
+      <c r="F6" s="32" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="33">
         <v>0.25</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="34">
         <v>0.04</v>
       </c>
     </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="16"/>
+    </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9">
+      <c r="B9" s="37">
         <v>0</v>
       </c>
+      <c r="C9" s="13">
+        <f>(base*(1+raise)^B9)*(1+bonus)</f>
+        <v>117283.47961066144</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10">
+      <c r="B10" s="37">
         <v>1</v>
       </c>
+      <c r="C10" s="13">
+        <f>(base*(1+raise)^B10)*(1+bonus)</f>
+        <v>122412.5050118659</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11">
+      <c r="B11" s="37">
         <v>2</v>
       </c>
+      <c r="C11" s="13">
+        <f>(base*(1+raise)^B11)*(1+bonus)</f>
+        <v>127765.83226405167</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12">
+      <c r="B12" s="37">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13">
+      <c r="C12" s="13">
+        <f>(base*(1+raise)^B12)*(1+bonus)</f>
+        <v>133353.27050568431</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="38">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="C13" s="39">
+        <f>(base*(1+raise)^B13)*(1+bonus)</f>
+        <v>139185.05784715715</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="40" t="s">
         <v>15</v>
       </c>
+      <c r="C14" s="41">
+        <f>SUM(C9:C13)</f>
+        <v>640000.14523942047</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <scenarios current="0" sqref="C9:C14">
+    <scenario name="Job 1" locked="1" count="3" user="Raph Adam" comment="Created by Raph Adam on 03 26 2025">
+      <inputCells r="C3" val="100000" numFmtId="165"/>
+      <inputCells r="C4" val="0.1" numFmtId="9"/>
+      <inputCells r="C5" val="0.015" numFmtId="167"/>
+    </scenario>
+    <scenario name="Job 2" locked="1" count="3" user="Raph Adam" comment="Created by Raph Adam on 03 26 2025">
+      <inputCells r="C3" val="80000" numFmtId="165"/>
+      <inputCells r="C4" val="0.15" numFmtId="9"/>
+      <inputCells r="C5" val="0.012" numFmtId="167"/>
+    </scenario>
+    <scenario name="Job 3" locked="1" count="3" user="Raph Adam" comment="Created by Raph Adam on 03 26 2025">
+      <inputCells r="C3" val="120000" numFmtId="165"/>
+      <inputCells r="C4" val="0.05" numFmtId="9"/>
+      <inputCells r="C5" val="0.008" numFmtId="167"/>
+    </scenario>
+  </scenarios>
+  <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
